--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmin.avram\Documents\UiPath\SupportAndMaintenance\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5532A-C79D-4533-B0D5-EF3C17562CD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646AB142-959F-4E7B-90E5-FCA5E63DC5E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,24 +334,15 @@
     <t>Initialization exception.</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
     <t>Accesa_Sharepoint</t>
   </si>
   <si>
-    <t>https://accesa.sharepoint.com/sites/BUDW-RPA</t>
-  </si>
-  <si>
     <t>OrchestratorCredentialsName</t>
   </si>
   <si>
     <t>AccesaSharepoint_Credentials</t>
   </si>
   <si>
-    <t>https://www.google.com/</t>
-  </si>
-  <si>
     <t>cosmin.avram@accesa.eu</t>
   </si>
   <si>
@@ -371,6 +362,15 @@
   </si>
   <si>
     <t>Support And Maintenance Process</t>
+  </si>
+  <si>
+    <t>https://accesa.sharepoint.com/sites/BUDW-RPA/</t>
+  </si>
+  <si>
+    <t>https://accesa.service-now.com/</t>
+  </si>
+  <si>
+    <t>Accesa_ServiceNow</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,6 +508,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -967,10 +968,10 @@
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1">
       <c r="A5" s="27" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="27"/>
@@ -1002,7 +1003,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="27"/>
@@ -1034,18 +1035,18 @@
         <v>20</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="17.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1071,10 +1072,10 @@
     </row>
     <row r="13" spans="1:26" s="13" customFormat="1">
       <c r="A13" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14"/>
     </row>
@@ -1091,7 +1092,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>37</v>
@@ -1127,10 +1128,10 @@
     </row>
     <row r="21" spans="1:3" s="13" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="14"/>
     </row>
@@ -2177,9 +2178,10 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{6DF79A41-4812-4DF1-9CBC-0606B17BAF64}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{C051E76E-510B-4984-8188-E64B2E20FF98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3522,7 +3524,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -3530,15 +3532,15 @@
         <v>71</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmin.avram\Documents\UiPath\SupportAndMaintenance\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646AB142-959F-4E7B-90E5-FCA5E63DC5E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD606BD2-3894-4FC6-BAC2-648BC6A60510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>Accesa_ServiceNow</t>
+  </si>
+  <si>
+    <t>Name_TicketRaisedFor</t>
+  </si>
+  <si>
+    <t>Cosmin Avram</t>
+  </si>
+  <si>
+    <t>The name of the person to whom the ticket will be asigned.</t>
   </si>
 </sst>
 </file>
@@ -824,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1041,170 +1050,180 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="17.25" customHeight="1">
+    <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B9" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" s="11" customFormat="1">
-      <c r="A9" s="10" t="s">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" s="11" customFormat="1">
+      <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" s="11" customFormat="1">
-      <c r="A12" s="10" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" s="11" customFormat="1">
+      <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" s="13" customFormat="1">
-      <c r="A13" s="26" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" s="13" customFormat="1">
+      <c r="A14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" s="11" customFormat="1">
-      <c r="A15" s="10" t="s">
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" s="11" customFormat="1">
+      <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:26" s="13" customFormat="1">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" s="13" customFormat="1">
+      <c r="A17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B17" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="13" customFormat="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="14"/>
-    </row>
     <row r="18" spans="1:3" s="13" customFormat="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" s="13" customFormat="1">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" s="13" customFormat="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="23"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" s="13" customFormat="1" ht="90">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:3" s="13" customFormat="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" s="13" customFormat="1" ht="90">
+      <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" s="13" customFormat="1">
-      <c r="A21" s="15" t="s">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" s="13" customFormat="1">
+      <c r="A22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>42</v>
-      </c>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="210">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" ht="210">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B27" s="19"/>
+    <row r="27" spans="1:3">
+      <c r="B27" s="25"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3">
-      <c r="B30" s="25"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3">
-      <c r="B32" s="19"/>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3">
+      <c r="B31" s="25"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:2">
       <c r="B33" s="19"/>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="25"/>
+    </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B44"/>
+    </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2174,11 +2193,12 @@
     <row r="1011" ht="14.25" customHeight="1"/>
     <row r="1012" ht="14.25" customHeight="1"/>
     <row r="1013" ht="14.25" customHeight="1"/>
+    <row r="1014" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{6DF79A41-4812-4DF1-9CBC-0606B17BAF64}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{C051E76E-510B-4984-8188-E64B2E20FF98}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{C051E76E-510B-4984-8188-E64B2E20FF98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmin.avram\Documents\UiPath\SupportAndMaintenance\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD606BD2-3894-4FC6-BAC2-648BC6A60510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F077F9B-CE96-42DD-B3E6-AACAAEC4BC01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,10 +376,10 @@
     <t>Name_TicketRaisedFor</t>
   </si>
   <si>
-    <t>Cosmin Avram</t>
-  </si>
-  <si>
     <t>The name of the person to whom the ticket will be asigned.</t>
+  </si>
+  <si>
+    <t>Laurentiu Vesa</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
   <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1055,10 +1055,10 @@
         <v>93</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmin.avram\Documents\UiPath\SupportAndMaintenance\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F077F9B-CE96-42DD-B3E6-AACAAEC4BC01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411871D0-7B5B-4579-B3D6-EAE3EEAB89D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -191,16 +191,7 @@
     <t>EMAILS</t>
   </si>
   <si>
-    <t>SendEmails</t>
-  </si>
-  <si>
-    <t>When set to false, no emails are sent!</t>
-  </si>
-  <si>
     <t>EmailProcessInfo</t>
-  </si>
-  <si>
-    <t>{{logF_BusinessProcessName}}</t>
   </si>
   <si>
     <t>RobotSignature</t>
@@ -213,173 +204,168 @@
 ----</t>
   </si>
   <si>
-    <t>{{EmailProcessInfo}}: System Exception</t>
-  </si>
-  <si>
-    <t>{{EmailTo_IT}}</t>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>TimeoutMedium</t>
+  </si>
+  <si>
+    <t>TimeoutLong</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds. Must be integer.</t>
+  </si>
+  <si>
+    <t>DelayShort</t>
+  </si>
+  <si>
+    <t>DelayMedium</t>
+  </si>
+  <si>
+    <t>DelayLong</t>
+  </si>
+  <si>
+    <t>Timeout medium value in milliseconds. Must be integer.</t>
+  </si>
+  <si>
+    <t>Timeout long value in milliseconds. Must be integer.</t>
+  </si>
+  <si>
+    <t>Delay short value in milliseconds. Must be integer.</t>
+  </si>
+  <si>
+    <t>Delay medium value in milliseconds. Must be integer.</t>
+  </si>
+  <si>
+    <t>Delay long value in milliseconds. Must be integer.</t>
+  </si>
+  <si>
+    <t>AccuracyLow</t>
+  </si>
+  <si>
+    <t>AccuracyMedium</t>
+  </si>
+  <si>
+    <t>AccuracyHigh</t>
+  </si>
+  <si>
+    <t>Image accuracy medium value, for images that have normal contrast. Must be double.</t>
+  </si>
+  <si>
+    <t>Image accuracy low value, for images that have high contrast. Must be double.</t>
+  </si>
+  <si>
+    <t>Image accuracy high value, for images that have low contrast. Must be double.</t>
+  </si>
+  <si>
+    <t>CREDENTIALS</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>Email_SystemException_Cc</t>
+  </si>
+  <si>
+    <t>{0} is error description, {1} is error source</t>
+  </si>
+  <si>
+    <t>ErrorMessage_ElementDidNotAppear</t>
+  </si>
+  <si>
+    <t>Element with selector {0} did not appear during {1} milliseconds.</t>
+  </si>
+  <si>
+    <t>{0} is the selector of UI element; {1} is the timeout in milliseconds</t>
+  </si>
+  <si>
+    <t>EmailTo_IT</t>
+  </si>
+  <si>
+    <t>EmailTo_Business</t>
+  </si>
+  <si>
+    <t>DelayKillProcess</t>
+  </si>
+  <si>
+    <t>Delay when killing processes. Value in milliseconds. Must be integer.</t>
+  </si>
+  <si>
+    <t>If working with Orchestrator queues, it must be the same as Orchestrator max retry number. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>MaxInitRetryNumber</t>
+  </si>
+  <si>
+    <t>If &gt; 0, the robot will retry the Initialization state with a failed system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>LogMessage_InitializationException</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Robot failed with initialization exception.</t>
+  </si>
+  <si>
+    <t>Initialization exception.</t>
+  </si>
+  <si>
+    <t>Accesa_Sharepoint</t>
+  </si>
+  <si>
+    <t>OrchestratorCredentialsName</t>
+  </si>
+  <si>
+    <t>AccesaSharepoint_Credentials</t>
+  </si>
+  <si>
+    <t>cosmin.avram@accesa.eu</t>
+  </si>
+  <si>
+    <t>Email_Account</t>
+  </si>
+  <si>
+    <t>Email_Account_Outlook</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Support And Maintenance Process</t>
+  </si>
+  <si>
+    <t>https://accesa.sharepoint.com/sites/BUDW-RPA/</t>
+  </si>
+  <si>
+    <t>https://accesa.service-now.com/</t>
+  </si>
+  <si>
+    <t>Accesa_ServiceNow</t>
+  </si>
+  <si>
+    <t>Name_TicketRaisedFor</t>
+  </si>
+  <si>
+    <t>The name of the person to whom the ticket will be asigned.</t>
+  </si>
+  <si>
+    <t>Laurentiu Vesa</t>
+  </si>
+  <si>
+    <t>Support And Maintenance Process : System Exception</t>
   </si>
   <si>
     <t>Dear Sir or Madam,
-{{EmailProcessInfo}} has encountered the following system exception.
+Support And Maintenance Process has encountered the following system exception.
 {0}
 ==============
 Exception source:
 {1}
 ==============
-{{RobotSignature}}</t>
-  </si>
-  <si>
-    <t>TimeoutShort</t>
-  </si>
-  <si>
-    <t>TimeoutMedium</t>
-  </si>
-  <si>
-    <t>TimeoutLong</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds. Must be integer.</t>
-  </si>
-  <si>
-    <t>DelayShort</t>
-  </si>
-  <si>
-    <t>DelayMedium</t>
-  </si>
-  <si>
-    <t>DelayLong</t>
-  </si>
-  <si>
-    <t>Timeout medium value in milliseconds. Must be integer.</t>
-  </si>
-  <si>
-    <t>Timeout long value in milliseconds. Must be integer.</t>
-  </si>
-  <si>
-    <t>Delay short value in milliseconds. Must be integer.</t>
-  </si>
-  <si>
-    <t>Delay medium value in milliseconds. Must be integer.</t>
-  </si>
-  <si>
-    <t>Delay long value in milliseconds. Must be integer.</t>
-  </si>
-  <si>
-    <t>AccuracyLow</t>
-  </si>
-  <si>
-    <t>AccuracyMedium</t>
-  </si>
-  <si>
-    <t>AccuracyHigh</t>
-  </si>
-  <si>
-    <t>Image accuracy medium value, for images that have normal contrast. Must be double.</t>
-  </si>
-  <si>
-    <t>Image accuracy low value, for images that have high contrast. Must be double.</t>
-  </si>
-  <si>
-    <t>Image accuracy high value, for images that have low contrast. Must be double.</t>
-  </si>
-  <si>
-    <t>CREDENTIALS</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
-  </si>
-  <si>
-    <t>Email_SystemException_Cc</t>
-  </si>
-  <si>
-    <t>{0} is error description, {1} is error source</t>
-  </si>
-  <si>
-    <t>ErrorMessage_ElementDidNotAppear</t>
-  </si>
-  <si>
-    <t>Element with selector {0} did not appear during {1} milliseconds.</t>
-  </si>
-  <si>
-    <t>{0} is the selector of UI element; {1} is the timeout in milliseconds</t>
-  </si>
-  <si>
-    <t>EmailTo_IT</t>
-  </si>
-  <si>
-    <t>EmailTo_Business</t>
-  </si>
-  <si>
-    <t>DelayKillProcess</t>
-  </si>
-  <si>
-    <t>Delay when killing processes. Value in milliseconds. Must be integer.</t>
-  </si>
-  <si>
-    <t>If working with Orchestrator queues, it must be the same as Orchestrator max retry number. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>MaxInitRetryNumber</t>
-  </si>
-  <si>
-    <t>If &gt; 0, the robot will retry the Initialization state with a failed system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>LogMessage_InitializationException</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Robot failed with initialization exception.</t>
-  </si>
-  <si>
-    <t>Initialization exception.</t>
-  </si>
-  <si>
-    <t>Accesa_Sharepoint</t>
-  </si>
-  <si>
-    <t>OrchestratorCredentialsName</t>
-  </si>
-  <si>
-    <t>AccesaSharepoint_Credentials</t>
-  </si>
-  <si>
-    <t>cosmin.avram@accesa.eu</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Email_Account</t>
-  </si>
-  <si>
-    <t>{{Email_Account}}</t>
-  </si>
-  <si>
-    <t>Email_Account_Outlook</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>Support And Maintenance Process</t>
-  </si>
-  <si>
-    <t>https://accesa.sharepoint.com/sites/BUDW-RPA/</t>
-  </si>
-  <si>
-    <t>https://accesa.service-now.com/</t>
-  </si>
-  <si>
-    <t>Accesa_ServiceNow</t>
-  </si>
-  <si>
-    <t>Name_TicketRaisedFor</t>
-  </si>
-  <si>
-    <t>The name of the person to whom the ticket will be asigned.</t>
-  </si>
-  <si>
-    <t>Laurentiu Vesa</t>
+----
+Best regards,
+Your Robot
+This is an automatically generated email - please do not reply to it.
+----</t>
   </si>
 </sst>
 </file>
@@ -458,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +504,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -833,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1014"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -977,10 +964,10 @@
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1">
       <c r="A5" s="27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="27"/>
@@ -1009,10 +996,10 @@
     </row>
     <row r="6" spans="1:26" s="4" customFormat="1">
       <c r="A6" s="27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="27"/>
@@ -1044,7 +1031,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -1052,21 +1039,21 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -1085,17 +1072,17 @@
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" s="11" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:26" s="13" customFormat="1">
       <c r="A14" s="26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14"/>
     </row>
@@ -1108,122 +1095,112 @@
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" s="13" customFormat="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" s="13" customFormat="1">
+      <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" s="13" customFormat="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" s="13" customFormat="1" ht="90">
+      <c r="A20" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="13" customFormat="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" s="13" customFormat="1">
-      <c r="A19" s="15" t="s">
+      <c r="B20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" s="13" customFormat="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="23"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" s="13" customFormat="1" ht="90">
+    <row r="21" spans="1:3" s="13" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" s="13" customFormat="1">
-      <c r="A22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="14"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="285">
       <c r="A25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="210">
-      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="4"/>
+      <c r="B25" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B27" s="19"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3">
-      <c r="B31" s="25"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" spans="1:2">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3">
+      <c r="B30" s="25"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="B33" s="19"/>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B34" s="19"/>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="25"/>
-    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B44"/>
-    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2193,15 +2170,16 @@
     <row r="1011" ht="14.25" customHeight="1"/>
     <row r="1012" ht="14.25" customHeight="1"/>
     <row r="1013" ht="14.25" customHeight="1"/>
-    <row r="1014" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{6DF79A41-4812-4DF1-9CBC-0606B17BAF64}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{C051E76E-510B-4984-8188-E64B2E20FF98}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{DAF23F8B-B3D0-4119-826D-99710DECF1FA}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{016DDAD6-C70A-4A9A-91D3-7286CE130DF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2263,18 +2241,18 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2292,35 +2270,35 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>5000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>30000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>120000</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -2329,46 +2307,46 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>15000</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>60000</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -2377,35 +2355,35 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0.6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0.8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0.9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2467,26 +2445,26 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3474,7 +3452,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3541,26 +3519,26 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
